--- a/tests/cogeneration/★CGSテストケース一覧.xlsx
+++ b/tests/cogeneration/★CGSテストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/cogeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C5C4C-294E-CA46-8A6A-7F3607FC3BD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25762923-1A7F-1C4C-A520-1BD43B1B12BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="17160" windowWidth="47900" windowHeight="16040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13940" yWindow="18640" windowWidth="46960" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>ケース名</t>
   </si>
@@ -457,7 +457,16 @@
   </si>
   <si>
     <r>
-      <t>年間一次エネルギー削減量</t>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -492,7 +501,16 @@
   </si>
   <si>
     <r>
-      <t>年間一次エネルギー削減量</t>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -527,7 +545,16 @@
   </si>
   <si>
     <r>
-      <t>年間一次エネルギー削減量</t>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -562,7 +589,16 @@
   </si>
   <si>
     <r>
-      <t>年間一次エネルギー削減量</t>
+      <t>C#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -596,10 +632,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>年間一次エネルギー削減量合計 [GJ]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <r>
       <t>C#</t>
     </r>
@@ -610,8 +642,7 @@
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
       </rPr>
-      <t>版
-年間一次エネルギー削減量</t>
+      <t>版 年間一次エネルギー削減量合計</t>
     </r>
     <r>
       <rPr>
@@ -621,16 +652,13 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>電力</t>
+      <t xml:space="preserve"> [GJ]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>MATLAB版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -640,23 +668,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>) [GJ]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>版
-年間一次エネルギー削減量</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>電力</t>
     </r>
     <r>
       <rPr>
@@ -666,16 +687,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>冷房</t>
+      <t>) [GJ]</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">バン </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>MATLAB版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -685,23 +706,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>) [GJ]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>版
-年間一次エネルギー削減量</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>暖房</t>
     </r>
     <r>
       <rPr>
@@ -711,16 +725,13 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>暖房</t>
+      <t>) [GJ]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>MATLAB版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -730,23 +741,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>) [GJ]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>版
-年間一次エネルギー削減量</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>冷房</t>
     </r>
     <r>
       <rPr>
@@ -756,16 +760,13 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>給湯</t>
+      <t>) [GJ]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>MATLAB版 年間一次エネルギー削減量</t>
     </r>
     <r>
       <rPr>
@@ -775,23 +776,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>) [GJ]</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-      </rPr>
-      <t>版
-年間一次エネルギー削減量合計</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t>給湯</t>
     </r>
     <r>
       <rPr>
@@ -801,8 +795,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> [GJ]</t>
-    </r>
+      <t>) [GJ]</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MATLAB版 年間一次エネルギー削減量合計 [GJ]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_hospital_04</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -810,7 +812,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000%"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -842,19 +847,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -870,12 +876,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -883,6 +883,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,13 +956,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -953,16 +968,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,27 +1371,29 @@
   <dimension ref="A1:AMI19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.1640625" style="1" customWidth="1"/>
-    <col min="3" max="17" width="10.33203125" style="1"/>
+    <col min="3" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="17" width="16.33203125" style="1" customWidth="1"/>
     <col min="18" max="19" width="17.5" style="2" customWidth="1"/>
     <col min="20" max="22" width="17.5" style="1" customWidth="1"/>
-    <col min="23" max="1023" width="10.33203125" style="1"/>
+    <col min="23" max="23" width="19.5" style="1" customWidth="1"/>
+    <col min="24" max="1023" width="10.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="110">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:23" ht="88">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1401,1259 +1424,1278 @@
         <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="15">
         <v>2044</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="15">
         <v>408.8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="15">
         <v>2220.66</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="15">
         <v>4903.7290508328497</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="15">
         <v>30.011446079999999</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="15">
         <v>45.285128460000102</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="15">
         <v>385.66037735849102</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="15">
         <v>2088.1245448220402</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="15">
         <v>70.895065108096802</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="15">
         <v>3764.0452830188801</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="15">
         <v>1410.21576527037</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="15">
         <v>21.814984800000001</v>
       </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
+      <c r="P2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15">
         <v>292.346982256378</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <v>3764.0452830188801</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="9">
         <v>1410.21576527037</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="9">
         <v>21.814984800000001</v>
       </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
         <v>292.346982256378</v>
       </c>
+      <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="15">
         <v>2044</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="15">
         <v>408.8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="15">
         <v>2220.66</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="15">
         <v>4903.7290508328497</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="15">
         <v>30.011446079999999</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="15">
         <v>45.285128460000102</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="15">
         <v>385.66037735849102</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="15">
         <v>2088.1245448220402</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="15">
         <v>70.895065108096802</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="15">
         <v>3764.0452830188801</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="15">
         <v>1410.21576527037</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="15">
         <v>21.814984800000001</v>
       </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <v>292.346982256378</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>3764.0452830188801</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="9">
         <v>1410.21576527037</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="9">
         <v>21.814984800000001</v>
       </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
         <v>292.346982256378</v>
       </c>
+      <c r="W3" s="14"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="15">
         <v>2044</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="15">
         <v>408.8</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>2220.66</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="15">
         <v>4903.7290508328497</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="15">
         <v>30.011446079999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="15">
         <v>45.285128460000102</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="15">
         <v>385.66037735849102</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="15">
         <v>2088.1245448220402</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="15">
         <v>70.895065108096802</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="15">
         <v>3764.0452830188801</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="15">
         <v>1410.21576527037</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="15">
         <v>21.814984800000001</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
         <v>292.346982256378</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>3764.0452830188801</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <v>1410.21576527037</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="9">
         <v>21.814984800000001</v>
       </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
         <v>292.346982256378</v>
       </c>
+      <c r="W4" s="14"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="15">
         <v>2030</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.979794189154929</v>
-      </c>
-      <c r="E5" s="7">
-        <v>795.59288159380105</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2864.1343737376801</v>
-      </c>
-      <c r="G5" s="7">
-        <v>6413.2141251079802</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="D5" s="15">
+        <v>0.97979417345320197</v>
+      </c>
+      <c r="E5" s="15">
+        <v>795.59286884400001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2864.1343278384002</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6413.2140223327897</v>
+      </c>
+      <c r="H5" s="15">
         <v>44.659889999999997</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="15">
         <v>44.659889999999997</v>
       </c>
-      <c r="J5" s="7">
-        <v>750.55932225830395</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2597.24968408214</v>
-      </c>
-      <c r="L5" s="7">
-        <v>82.630380661472401</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7325.45898524106</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1763.07519774873</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="J5" s="15">
+        <v>750.55931023019002</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2597.2496560496902</v>
+      </c>
+      <c r="L5" s="15">
+        <v>82.630380873376495</v>
+      </c>
+      <c r="M5" s="15">
+        <v>7325.4588678466598</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1763.0751786359101</v>
+      </c>
+      <c r="O5" s="15">
         <v>10.907492400000001</v>
       </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>2686.2275502817902</v>
-      </c>
-      <c r="R5" s="11">
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>2686.2275165497599</v>
+      </c>
+      <c r="R5" s="9">
         <v>7325.4588678467098</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>1763.0751786359201</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="9">
         <v>10.907492400000001</v>
       </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
         <v>2686.2275165497799</v>
       </c>
+      <c r="W5" s="14"/>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:23">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="16">
         <v>602</v>
       </c>
-      <c r="D6" s="10">
-        <v>0.50194166234478699</v>
-      </c>
-      <c r="E6" s="10">
-        <v>241.73510458524899</v>
-      </c>
-      <c r="F6" s="10">
-        <v>870.24637650689795</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1948.6084191136599</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="D6" s="16">
+        <v>0.50194164126450902</v>
+      </c>
+      <c r="E6" s="16">
+        <v>241.73509443298801</v>
+      </c>
+      <c r="F6" s="16">
+        <v>870.24633995875604</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1948.6083372770399</v>
+      </c>
+      <c r="H6" s="16">
         <v>44.659889999999997</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="16">
         <v>44.659889999999997</v>
       </c>
-      <c r="J6" s="10">
-        <v>228.05198545778299</v>
-      </c>
-      <c r="K6" s="10">
-        <v>844.13898521169199</v>
-      </c>
-      <c r="L6" s="10">
-        <v>85.4520649981133</v>
-      </c>
-      <c r="M6" s="10">
-        <v>2225.7873780679602</v>
-      </c>
-      <c r="N6" s="10">
-        <v>575.54299205709106</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>852.72195101139096</v>
-      </c>
-      <c r="R6" s="11">
+      <c r="J6" s="16">
+        <v>228.051975880177</v>
+      </c>
+      <c r="K6" s="16">
+        <v>844.13894975999301</v>
+      </c>
+      <c r="L6" s="16">
+        <v>85.452064998113201</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2225.7872845905299</v>
+      </c>
+      <c r="N6" s="16">
+        <v>575.542967885743</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>852.72191519923001</v>
+      </c>
+      <c r="R6" s="9">
         <v>2225.7872845905599</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>575.542967885753</v>
       </c>
-      <c r="T6" s="11">
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
         <v>852.72191519924399</v>
       </c>
+      <c r="W6" s="14"/>
     </row>
-    <row r="7" spans="1:22" ht="19.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:23" ht="19.25" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14"/>
     </row>
-    <row r="8" spans="1:22" ht="19.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:23" ht="19.25" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <v>2016</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="16">
         <v>403.2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="16">
         <v>2190.2399999999998</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="16">
         <v>4836.5546802734998</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="16">
         <v>30.011446079999999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="16">
         <v>45.285128460000102</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="16">
         <v>380.37735849056702</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="16">
         <v>2068.3391535532301</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="16">
         <v>71.077406777604693</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="16">
         <v>3712.4830188679398</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="16">
         <v>1410.21576527037</v>
       </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
         <v>286.14410386478897</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="9">
         <v>3712.4830188679398</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="9">
         <v>1410.21576527037</v>
       </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
         <v>286.14410386478801</v>
       </c>
+      <c r="W8" s="14"/>
     </row>
-    <row r="9" spans="1:22" ht="19.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:23" ht="19.25" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>28</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="16">
         <v>5.6</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="16">
         <v>30.42</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="16">
         <v>67.174370559354301</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="16">
         <v>30.011446079999999</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="16">
         <v>45.285128460000003</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="16">
         <v>5.2830188679245298</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="16">
         <v>19.785391268806102</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="16">
         <v>57.766464903526803</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="16">
         <v>51.562264150943399</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
         <v>21.814984800000001</v>
       </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
         <v>6.2028783915891097</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="9">
         <v>51.562264150943399</v>
       </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <v>21.814984800000001</v>
       </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
         <v>6.2028783915891097</v>
       </c>
+      <c r="W9" s="14"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="15">
         <v>5110</v>
       </c>
-      <c r="D10" s="7">
-        <v>0.94174981796407697</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1780.56638082468</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5316.8177366666996</v>
-      </c>
-      <c r="G10" s="7">
-        <v>17858.173062556802</v>
-      </c>
-      <c r="H10" s="7">
-        <v>35.894147450103802</v>
-      </c>
-      <c r="I10" s="7">
-        <v>29.772461707264299</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1679.77960455158</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5157.3132045666898</v>
-      </c>
-      <c r="L10" s="7">
-        <v>62.741691110861098</v>
-      </c>
-      <c r="M10" s="7">
-        <v>16394.648940423402</v>
-      </c>
-      <c r="N10" s="7">
-        <v>512.92452756436796</v>
-      </c>
-      <c r="O10" s="7">
-        <v>331.775825795598</v>
-      </c>
-      <c r="P10" s="7">
-        <v>4887.8910508005201</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>4269.0672820272202</v>
-      </c>
-      <c r="R10" s="11">
+      <c r="D10" s="15">
+        <v>0.94174986499906099</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1780.56646975372</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5316.8178983734397</v>
+      </c>
+      <c r="G10" s="15">
+        <v>17858.173772228602</v>
+      </c>
+      <c r="H10" s="15">
+        <v>35.894147816400498</v>
+      </c>
+      <c r="I10" s="15">
+        <v>29.772461429631999</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1679.7796884469101</v>
+      </c>
+      <c r="K10" s="15">
+        <v>5157.3133614222297</v>
+      </c>
+      <c r="L10" s="15">
+        <v>62.7416911871208</v>
+      </c>
+      <c r="M10" s="15">
         <v>16394.6497592417</v>
       </c>
-      <c r="S10" s="11">
+      <c r="N10" s="15">
+        <v>512.92452677915605</v>
+      </c>
+      <c r="O10" s="15">
+        <v>331.7751529766</v>
+      </c>
+      <c r="P10" s="15">
+        <v>4887.8911357731204</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>4269.0668025421</v>
+      </c>
+      <c r="R10" s="9">
+        <v>16394.6497592417</v>
+      </c>
+      <c r="S10" s="9">
         <v>512.92452677915901</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="9">
         <v>331.77515297660398</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="9">
         <v>4887.8911357731104</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="13">
         <v>4269.0668025421</v>
       </c>
+      <c r="W10" s="14"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="15">
         <v>5096</v>
       </c>
-      <c r="D11" s="7">
-        <v>0.95214707731591197</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1795.2923572207001</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5344.3483010583104</v>
-      </c>
-      <c r="G11" s="7">
-        <v>17973.708796065199</v>
-      </c>
-      <c r="H11" s="7">
-        <v>35.958368744737797</v>
-      </c>
-      <c r="I11" s="7">
-        <v>29.734254414026498</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1693.6720351138599</v>
-      </c>
-      <c r="K11" s="7">
-        <v>4652.5512846615002</v>
-      </c>
-      <c r="L11" s="7">
-        <v>59.808305191996403</v>
-      </c>
-      <c r="M11" s="7">
-        <v>16530.2390627112</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="D11" s="15">
+        <v>0.95214712384973899</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1795.2924449611601</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5344.3484768913304</v>
+      </c>
+      <c r="G11" s="15">
+        <v>17973.709516605199</v>
+      </c>
+      <c r="H11" s="15">
+        <v>35.958369060594997</v>
+      </c>
+      <c r="I11" s="15">
+        <v>29.734254200302502</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1693.6721178878799</v>
+      </c>
+      <c r="K11" s="15">
+        <v>4652.55140923832</v>
+      </c>
+      <c r="L11" s="15">
+        <v>59.808305145376004</v>
+      </c>
+      <c r="M11" s="15">
+        <v>16530.239870585701</v>
+      </c>
+      <c r="N11" s="15">
         <v>896.75583986724996</v>
       </c>
-      <c r="O11" s="7">
-        <v>2083.5951156063702</v>
-      </c>
-      <c r="P11" s="7">
-        <v>2237.5508658113299</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>3774.4320879311099</v>
-      </c>
-      <c r="R11" s="11">
+      <c r="O11" s="15">
+        <v>2083.5862884503399</v>
+      </c>
+      <c r="P11" s="15">
+        <v>2237.5434964054898</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>3774.4159787037202</v>
+      </c>
+      <c r="R11" s="9">
         <v>16530.239870585701</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="9">
         <v>896.75583986724996</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="9">
         <v>2083.5862884503399</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="9">
         <v>2237.5434964054798</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="13">
         <v>3774.4159787037302</v>
       </c>
+      <c r="W11" s="14"/>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:23">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="16">
         <v>5046</v>
       </c>
-      <c r="D12" s="10">
-        <v>0.94174981796407697</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1760.0071205975601</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5254.3245136969799</v>
-      </c>
-      <c r="G12" s="10">
-        <v>17649.576233768501</v>
-      </c>
-      <c r="H12" s="10">
-        <v>35.899024147835704</v>
-      </c>
-      <c r="I12" s="10">
-        <v>29.770258753544599</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1660.3840760354301</v>
-      </c>
-      <c r="K12" s="10">
-        <v>4203.5863036884502</v>
-      </c>
-      <c r="L12" s="10">
-        <v>57.683928738963303</v>
-      </c>
-      <c r="M12" s="10">
-        <v>16205.3485821058</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>4887.8910508005201</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>3443.6633991379399</v>
-      </c>
-      <c r="R12" s="11">
+      <c r="D12" s="16">
+        <v>0.94174986499906099</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1760.00720709039</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5254.3246710309904</v>
+      </c>
+      <c r="G12" s="16">
+        <v>17649.5769240632</v>
+      </c>
+      <c r="H12" s="16">
+        <v>35.899024507986603</v>
+      </c>
+      <c r="I12" s="16">
+        <v>29.770258480628499</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1660.3841576324401</v>
+      </c>
+      <c r="K12" s="16">
+        <v>4203.5863767648798</v>
+      </c>
+      <c r="L12" s="16">
+        <v>57.683928561262299</v>
+      </c>
+      <c r="M12" s="16">
         <v>16205.349378492599</v>
       </c>
-      <c r="S12" s="11">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>4887.8911357731204</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>3443.66359020257</v>
+      </c>
+      <c r="R12" s="9">
+        <v>16205.349378492599</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
         <v>4887.8911357731104</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="9">
         <v>3443.66359020257</v>
       </c>
+      <c r="W12" s="14"/>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:23">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="16">
         <v>1050</v>
       </c>
-      <c r="D13" s="10">
-        <v>0.58526811311487603</v>
-      </c>
-      <c r="E13" s="10">
-        <v>568.44165486282304</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1985.73066373917</v>
-      </c>
-      <c r="G13" s="10">
-        <v>6261.1416054418196</v>
-      </c>
-      <c r="H13" s="10">
-        <v>32.683975007489998</v>
-      </c>
-      <c r="I13" s="10">
-        <v>31.715153383742201</v>
-      </c>
-      <c r="J13" s="10">
-        <v>536.26571213473903</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="D13" s="16">
+        <v>0.585268299153472</v>
+      </c>
+      <c r="E13" s="16">
+        <v>568.44183555280904</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1985.7309628401899</v>
+      </c>
+      <c r="G13" s="16">
+        <v>6261.1430226657903</v>
+      </c>
+      <c r="H13" s="16">
+        <v>32.683977998618303</v>
+      </c>
+      <c r="I13" s="16">
+        <v>31.7151509820443</v>
+      </c>
+      <c r="J13" s="16">
+        <v>536.26588259698997</v>
+      </c>
+      <c r="K13" s="16">
         <v>1625.3428128850801</v>
       </c>
-      <c r="L13" s="10">
-        <v>56.793147330824702</v>
-      </c>
-      <c r="M13" s="10">
-        <v>5233.9533504350602</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
+      <c r="L13" s="16">
+        <v>56.793144276718003</v>
+      </c>
+      <c r="M13" s="16">
+        <v>5233.9550141466198</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
         <v>1889.93350335474</v>
       </c>
-      <c r="Q13" s="10">
-        <v>862.74524834797103</v>
-      </c>
-      <c r="R13" s="11">
+      <c r="Q13" s="16">
+        <v>862.74549483557098</v>
+      </c>
+      <c r="R13" s="9">
         <v>5233.9550141466398</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
         <v>1889.93350335474</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="9">
         <v>862.74549483556802</v>
       </c>
+      <c r="W13" s="14"/>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:23">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0</v>
-      </c>
-      <c r="T14" s="11">
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <v>0</v>
-      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="15">
         <v>5222</v>
       </c>
-      <c r="D15" s="7">
-        <v>0.83720305924233596</v>
-      </c>
-      <c r="E15" s="7">
-        <v>655.78115630451998</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3660.4395537188502</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7993.5013806281504</v>
-      </c>
-      <c r="H15" s="7">
-        <v>29.534143428280199</v>
-      </c>
-      <c r="I15" s="7">
-        <v>45.792693081779397</v>
-      </c>
-      <c r="J15" s="7">
-        <v>618.66146821181201</v>
-      </c>
-      <c r="K15" s="7">
-        <v>3550.6263671072802</v>
-      </c>
-      <c r="L15" s="7">
-        <v>72.2813117499676</v>
-      </c>
-      <c r="M15" s="7">
-        <v>6038.13592974729</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="D15" s="15">
+        <v>0.83720181916547998</v>
+      </c>
+      <c r="E15" s="15">
+        <v>655.78018495232095</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3660.4354655745801</v>
+      </c>
+      <c r="G15" s="15">
+        <v>7993.49135981787</v>
+      </c>
+      <c r="H15" s="15">
+        <v>29.534136706468502</v>
+      </c>
+      <c r="I15" s="15">
+        <v>45.792699345057997</v>
+      </c>
+      <c r="J15" s="15">
+        <v>618.660551841813</v>
+      </c>
+      <c r="K15" s="15">
+        <v>3550.6224016073402</v>
+      </c>
+      <c r="L15" s="15">
+        <v>72.281311484016101</v>
+      </c>
+      <c r="M15" s="15">
+        <v>6038.1269859760896</v>
+      </c>
+      <c r="N15" s="15">
         <v>189.499809248731</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="15">
         <v>50.133775340468802</v>
       </c>
-      <c r="P15" s="7">
-        <v>3786.4941711557599</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>2070.7623048640999</v>
-      </c>
-      <c r="R15" s="13">
+      <c r="P15" s="15">
+        <v>3786.4895601093199</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>2070.7587708567498</v>
+      </c>
+      <c r="R15" s="10">
         <v>6038.1269859761396</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="9">
         <v>189.499809248741</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="9">
         <v>50.133775340474301</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="9">
         <v>3786.4895601093299</v>
       </c>
       <c r="V15" s="13">
         <v>2070.7587708567698</v>
       </c>
+      <c r="W15" s="14"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="15">
         <v>5222</v>
       </c>
-      <c r="D16" s="7">
-        <v>0.83720305924233596</v>
-      </c>
-      <c r="E16" s="7">
-        <v>655.78115630451998</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3660.4395537188502</v>
-      </c>
-      <c r="G16" s="7">
-        <v>7993.5013806281504</v>
-      </c>
-      <c r="H16" s="7">
-        <v>29.534143428280199</v>
-      </c>
-      <c r="I16" s="7">
-        <v>45.792693081779397</v>
-      </c>
-      <c r="J16" s="7">
-        <v>618.66146821181201</v>
-      </c>
-      <c r="K16" s="7">
-        <v>3550.6263671072802</v>
-      </c>
-      <c r="L16" s="7">
-        <v>72.2813117499676</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6038.13592974729</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="D16" s="15">
+        <v>0.83720181916547998</v>
+      </c>
+      <c r="E16" s="15">
+        <v>655.78018495232095</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3660.4354655745801</v>
+      </c>
+      <c r="G16" s="15">
+        <v>7993.49135981787</v>
+      </c>
+      <c r="H16" s="15">
+        <v>29.534136706468502</v>
+      </c>
+      <c r="I16" s="15">
+        <v>45.792699345057997</v>
+      </c>
+      <c r="J16" s="15">
+        <v>618.660551841813</v>
+      </c>
+      <c r="K16" s="15">
+        <v>3550.6224016073402</v>
+      </c>
+      <c r="L16" s="15">
+        <v>72.281311484016101</v>
+      </c>
+      <c r="M16" s="15">
+        <v>6038.1269859760896</v>
+      </c>
+      <c r="N16" s="15">
         <v>189.499809248731</v>
       </c>
-      <c r="O16" s="7">
-        <v>1769.8845556236399</v>
-      </c>
-      <c r="P16" s="7">
-        <v>2187.3753820412899</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>2191.3942960327799</v>
-      </c>
-      <c r="R16" s="13">
+      <c r="O16" s="15">
+        <v>1769.8816319288201</v>
+      </c>
+      <c r="P16" s="15">
+        <v>2187.3707220685701</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>2191.3877894043399</v>
+      </c>
+      <c r="R16" s="10">
         <v>6038.1269859761396</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="9">
         <v>189.499809248741</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="9">
         <v>1769.8816319288301</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="9">
         <v>2187.3707220685901</v>
       </c>
       <c r="V16" s="13">
         <v>2191.3877894043599</v>
       </c>
+      <c r="W16" s="14"/>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:23">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="16">
         <v>5110</v>
       </c>
-      <c r="D17" s="10">
-        <v>0.85536964243772895</v>
-      </c>
-      <c r="E17" s="10">
-        <v>655.64083092851797</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3638.07742288195</v>
-      </c>
-      <c r="G17" s="10">
-        <v>7961.7828066789398</v>
-      </c>
-      <c r="H17" s="10">
-        <v>29.6454581675182</v>
-      </c>
-      <c r="I17" s="10">
-        <v>45.694256063228202</v>
-      </c>
-      <c r="J17" s="10">
-        <v>618.52908578162101</v>
-      </c>
-      <c r="K17" s="10">
-        <v>3256.3849871939501</v>
-      </c>
-      <c r="L17" s="10">
-        <v>68.867612055533101</v>
-      </c>
-      <c r="M17" s="10">
-        <v>6036.8438772286299</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>3786.4941711557599</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>1861.55524170545</v>
-      </c>
-      <c r="R17" s="12">
-        <v>6038.1269859761396</v>
-      </c>
-      <c r="S17" s="11">
-        <v>0</v>
-      </c>
-      <c r="T17" s="11">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <v>3786.4895601093299</v>
-      </c>
-      <c r="V17" s="12">
-        <v>1831.1251862675499</v>
-      </c>
+      <c r="D17" s="16">
+        <v>0.85536837518110698</v>
+      </c>
+      <c r="E17" s="16">
+        <v>655.63985957631905</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3638.0733347376899</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7961.7727858686503</v>
+      </c>
+      <c r="H17" s="16">
+        <v>29.645451559030299</v>
+      </c>
+      <c r="I17" s="16">
+        <v>45.694262227564501</v>
+      </c>
+      <c r="J17" s="16">
+        <v>618.528169411622</v>
+      </c>
+      <c r="K17" s="16">
+        <v>3256.3810216940201</v>
+      </c>
+      <c r="L17" s="16">
+        <v>68.867607491986902</v>
+      </c>
+      <c r="M17" s="16">
+        <v>6036.8349334574305</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <v>3786.4895601093199</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>1861.5517076981</v>
+      </c>
+      <c r="R17" s="10">
+        <v>6036.83493</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>3786.48956</v>
+      </c>
+      <c r="V17" s="13">
+        <v>1861.55171</v>
+      </c>
+      <c r="W17" s="14"/>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:23">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="16">
         <v>1300</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.37437128981212497</v>
-      </c>
-      <c r="E18" s="10">
-        <v>219.007204540093</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1671.88155800814</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3304.32178296752</v>
-      </c>
-      <c r="H18" s="10">
-        <v>23.860446655297299</v>
-      </c>
-      <c r="I18" s="10">
-        <v>50.596814348591202</v>
-      </c>
-      <c r="J18" s="10">
-        <v>206.61057032084301</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1618.84366985724</v>
-      </c>
-      <c r="L18" s="10">
-        <v>71.501563049663005</v>
-      </c>
-      <c r="M18" s="10">
-        <v>2016.5191663314199</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>1882.3763602991201</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>594.57374366301804</v>
-      </c>
-      <c r="R18" s="11">
+      <c r="D18" s="16">
+        <v>0.37437050383217702</v>
+      </c>
+      <c r="E18" s="16">
+        <v>219.00674474182301</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1671.8795552024301</v>
+      </c>
+      <c r="G18" s="16">
+        <v>3304.3169951519799</v>
+      </c>
+      <c r="H18" s="16">
+        <v>23.860431133796201</v>
+      </c>
+      <c r="I18" s="16">
+        <v>50.596827049443803</v>
+      </c>
+      <c r="J18" s="16">
+        <v>206.61013654889001</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1618.8425243604399</v>
+      </c>
+      <c r="L18" s="16">
+        <v>71.501584726975395</v>
+      </c>
+      <c r="M18" s="16">
+        <v>2016.51493271717</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>1882.3750283260899</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>594.572965891276</v>
+      </c>
+      <c r="R18" s="9">
         <v>2016.51493271718</v>
       </c>
-      <c r="S18" s="11">
-        <v>0</v>
-      </c>
-      <c r="T18" s="11">
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
         <v>1882.3750283260999</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="9">
         <v>594.57296589127998</v>
       </c>
+      <c r="W18" s="14"/>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:23">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <v>0</v>
-      </c>
-      <c r="S19" s="11">
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
-        <v>0</v>
-      </c>
-      <c r="V19" s="11">
-        <v>0</v>
-      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/tests/cogeneration/★CGSテストケース一覧.xlsx
+++ b/tests/cogeneration/★CGSテストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/cogeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25762923-1A7F-1C4C-A520-1BD43B1B12BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD94CC-1E80-AA42-8E8C-1EC8BB170732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="18640" windowWidth="46960" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="13580" windowWidth="46960" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ケース名</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>事務所 基準ケース（暖房利用のみ）</t>
-  </si>
-  <si>
-    <t>Case_hospital_00</t>
-  </si>
-  <si>
-    <t>病院 基準ケース（給湯優先）</t>
   </si>
   <si>
     <t>Case_hospital_01</t>
@@ -805,6 +799,25 @@
   </si>
   <si>
     <t>Case_hospital_04</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_hospital_05</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_hospital_00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>病院 基準ケース（給湯優先）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>病院 基準ケース（給湯優先）+太陽光発電あり</t>
+    <rPh sb="15" eb="20">
+      <t xml:space="preserve">タイヨウコウハツデン </t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -934,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +998,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI19"/>
+  <dimension ref="A1:AMI23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="21"/>
@@ -1394,64 +1413,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="W1" s="2"/>
     </row>
@@ -2009,10 +2028,10 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C10" s="15">
         <v>5110</v>
@@ -2078,10 +2097,10 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="15">
         <v>5096</v>
@@ -2147,10 +2166,10 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="16">
         <v>5046</v>
@@ -2216,10 +2235,10 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="16">
         <v>1050</v>
@@ -2285,10 +2304,10 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="16">
         <v>0</v>
@@ -2353,80 +2372,80 @@
       <c r="W14" s="14"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5222</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.83720181916547998</v>
-      </c>
-      <c r="E15" s="15">
-        <v>655.78018495232095</v>
-      </c>
-      <c r="F15" s="15">
-        <v>3660.4354655745801</v>
-      </c>
-      <c r="G15" s="15">
-        <v>7993.49135981787</v>
-      </c>
-      <c r="H15" s="15">
-        <v>29.534136706468502</v>
-      </c>
-      <c r="I15" s="15">
-        <v>45.792699345057997</v>
-      </c>
-      <c r="J15" s="15">
-        <v>618.660551841813</v>
-      </c>
-      <c r="K15" s="15">
-        <v>3550.6224016073402</v>
-      </c>
-      <c r="L15" s="15">
-        <v>72.281311484016101</v>
-      </c>
-      <c r="M15" s="15">
-        <v>6038.1269859760896</v>
-      </c>
-      <c r="N15" s="15">
-        <v>189.499809248731</v>
-      </c>
-      <c r="O15" s="15">
-        <v>50.133775340468802</v>
-      </c>
-      <c r="P15" s="15">
-        <v>3786.4895601093199</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>2070.7587708567498</v>
-      </c>
-      <c r="R15" s="10">
-        <v>6038.1269859761396</v>
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4508</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.95163594451215305</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1587.2906900084899</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4738.6036630409699</v>
+      </c>
+      <c r="G15" s="16">
+        <v>15907.720665798201</v>
+      </c>
+      <c r="H15" s="16">
+        <v>35.921214635835497</v>
+      </c>
+      <c r="I15" s="16">
+        <v>29.788074373401599</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1497.44404717782</v>
+      </c>
+      <c r="K15" s="16">
+        <v>4596.4455531497397</v>
+      </c>
+      <c r="L15" s="16">
+        <v>62.782370477893402</v>
+      </c>
+      <c r="M15" s="16">
+        <v>14615.053900455499</v>
+      </c>
+      <c r="N15" s="16">
+        <v>462.35108768997901</v>
+      </c>
+      <c r="O15" s="16">
+        <v>295.03392895922701</v>
+      </c>
+      <c r="P15" s="16">
+        <v>4353.3508854334405</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>3818.0691367398899</v>
+      </c>
+      <c r="R15" s="9">
+        <v>14615.053900000001</v>
       </c>
       <c r="S15" s="9">
-        <v>189.499809248741</v>
+        <v>462.35109</v>
       </c>
       <c r="T15" s="9">
-        <v>50.133775340474301</v>
+        <v>295.03393</v>
       </c>
       <c r="U15" s="9">
-        <v>3786.4895601093299</v>
-      </c>
-      <c r="V15" s="13">
-        <v>2070.7587708567698</v>
+        <v>4353.3508899999997</v>
+      </c>
+      <c r="V15" s="9">
+        <v>3818.0691400000001</v>
       </c>
       <c r="W15" s="14"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="15">
         <v>5222</v>
@@ -2465,13 +2484,13 @@
         <v>189.499809248731</v>
       </c>
       <c r="O16" s="15">
-        <v>1769.8816319288201</v>
+        <v>50.133775340468802</v>
       </c>
       <c r="P16" s="15">
-        <v>2187.3707220685701</v>
+        <v>3786.4895601093199</v>
       </c>
       <c r="Q16" s="15">
-        <v>2191.3877894043399</v>
+        <v>2070.7587708567498</v>
       </c>
       <c r="R16" s="10">
         <v>6038.1269859761396</v>
@@ -2480,124 +2499,124 @@
         <v>189.499809248741</v>
       </c>
       <c r="T16" s="9">
-        <v>1769.8816319288301</v>
+        <v>50.133775340474301</v>
       </c>
       <c r="U16" s="9">
-        <v>2187.3707220685901</v>
+        <v>3786.4895601093299</v>
       </c>
       <c r="V16" s="13">
-        <v>2191.3877894043599</v>
+        <v>2070.7587708567698</v>
       </c>
       <c r="W16" s="14"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16">
-        <v>5110</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.85536837518110698</v>
-      </c>
-      <c r="E17" s="16">
-        <v>655.63985957631905</v>
-      </c>
-      <c r="F17" s="16">
-        <v>3638.0733347376899</v>
-      </c>
-      <c r="G17" s="16">
-        <v>7961.7727858686503</v>
-      </c>
-      <c r="H17" s="16">
-        <v>29.645451559030299</v>
-      </c>
-      <c r="I17" s="16">
-        <v>45.694262227564501</v>
-      </c>
-      <c r="J17" s="16">
-        <v>618.528169411622</v>
-      </c>
-      <c r="K17" s="16">
-        <v>3256.3810216940201</v>
-      </c>
-      <c r="L17" s="16">
-        <v>68.867607491986902</v>
-      </c>
-      <c r="M17" s="16">
-        <v>6036.8349334574305</v>
-      </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
-        <v>3786.4895601093199</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>1861.5517076981</v>
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15">
+        <v>5222</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.83720181916547998</v>
+      </c>
+      <c r="E17" s="15">
+        <v>655.78018495232095</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3660.4354655745801</v>
+      </c>
+      <c r="G17" s="15">
+        <v>7993.49135981787</v>
+      </c>
+      <c r="H17" s="15">
+        <v>29.534136706468502</v>
+      </c>
+      <c r="I17" s="15">
+        <v>45.792699345057997</v>
+      </c>
+      <c r="J17" s="15">
+        <v>618.660551841813</v>
+      </c>
+      <c r="K17" s="15">
+        <v>3550.6224016073402</v>
+      </c>
+      <c r="L17" s="15">
+        <v>72.281311484016101</v>
+      </c>
+      <c r="M17" s="15">
+        <v>6038.1269859760896</v>
+      </c>
+      <c r="N17" s="15">
+        <v>189.499809248731</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1769.8816319288201</v>
+      </c>
+      <c r="P17" s="15">
+        <v>2187.3707220685701</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>2191.3877894043399</v>
       </c>
       <c r="R17" s="10">
-        <v>6036.83493</v>
+        <v>6038.1269859761396</v>
       </c>
       <c r="S17" s="9">
-        <v>0</v>
+        <v>189.499809248741</v>
       </c>
       <c r="T17" s="9">
-        <v>0</v>
+        <v>1769.8816319288301</v>
       </c>
       <c r="U17" s="9">
-        <v>3786.48956</v>
+        <v>2187.3707220685901</v>
       </c>
       <c r="V17" s="13">
-        <v>1861.55171</v>
+        <v>2191.3877894043599</v>
       </c>
       <c r="W17" s="14"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="16">
-        <v>1300</v>
+        <v>5110</v>
       </c>
       <c r="D18" s="16">
-        <v>0.37437050383217702</v>
+        <v>0.85536837518110698</v>
       </c>
       <c r="E18" s="16">
-        <v>219.00674474182301</v>
+        <v>655.63985957631905</v>
       </c>
       <c r="F18" s="16">
-        <v>1671.8795552024301</v>
+        <v>3638.0733347376899</v>
       </c>
       <c r="G18" s="16">
-        <v>3304.3169951519799</v>
+        <v>7961.7727858686503</v>
       </c>
       <c r="H18" s="16">
-        <v>23.860431133796201</v>
+        <v>29.645451559030299</v>
       </c>
       <c r="I18" s="16">
-        <v>50.596827049443803</v>
+        <v>45.694262227564501</v>
       </c>
       <c r="J18" s="16">
-        <v>206.61013654889001</v>
+        <v>618.528169411622</v>
       </c>
       <c r="K18" s="16">
-        <v>1618.8425243604399</v>
+        <v>3256.3810216940201</v>
       </c>
       <c r="L18" s="16">
-        <v>71.501584726975395</v>
+        <v>68.867607491986902</v>
       </c>
       <c r="M18" s="16">
-        <v>2016.51493271717</v>
+        <v>6036.8349334574305</v>
       </c>
       <c r="N18" s="16">
         <v>0</v>
@@ -2606,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="16">
-        <v>1882.3750283260899</v>
+        <v>3786.4895601093199</v>
       </c>
       <c r="Q18" s="16">
-        <v>594.572965891276</v>
-      </c>
-      <c r="R18" s="9">
-        <v>2016.51493271718</v>
+        <v>1861.5517076981</v>
+      </c>
+      <c r="R18" s="10">
+        <v>6036.83493</v>
       </c>
       <c r="S18" s="9">
         <v>0</v>
@@ -2621,52 +2640,52 @@
         <v>0</v>
       </c>
       <c r="U18" s="9">
-        <v>1882.3750283260999</v>
-      </c>
-      <c r="V18" s="9">
-        <v>594.57296589127998</v>
+        <v>3786.48956</v>
+      </c>
+      <c r="V18" s="13">
+        <v>1861.55171</v>
       </c>
       <c r="W18" s="14"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="16">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="D19" s="16">
-        <v>0</v>
+        <v>0.37437050383217702</v>
       </c>
       <c r="E19" s="16">
-        <v>0</v>
+        <v>219.00674474182301</v>
       </c>
       <c r="F19" s="16">
-        <v>0</v>
+        <v>1671.8795552024301</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>3304.3169951519799</v>
       </c>
       <c r="H19" s="16">
-        <v>0</v>
+        <v>23.860431133796201</v>
       </c>
       <c r="I19" s="16">
-        <v>0</v>
+        <v>50.596827049443803</v>
       </c>
       <c r="J19" s="16">
-        <v>0</v>
+        <v>206.61013654889001</v>
       </c>
       <c r="K19" s="16">
-        <v>0</v>
+        <v>1618.8425243604399</v>
       </c>
       <c r="L19" s="16">
-        <v>0</v>
+        <v>71.501584726975395</v>
       </c>
       <c r="M19" s="16">
-        <v>0</v>
+        <v>2016.51493271717</v>
       </c>
       <c r="N19" s="16">
         <v>0</v>
@@ -2675,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="16">
-        <v>0</v>
+        <v>1882.3750283260899</v>
       </c>
       <c r="Q19" s="16">
-        <v>0</v>
+        <v>594.572965891276</v>
       </c>
       <c r="R19" s="9">
-        <v>0</v>
+        <v>2016.51493271718</v>
       </c>
       <c r="S19" s="9">
         <v>0</v>
@@ -2690,12 +2709,93 @@
         <v>0</v>
       </c>
       <c r="U19" s="9">
-        <v>0</v>
+        <v>1882.3750283260999</v>
       </c>
       <c r="V19" s="9">
-        <v>0</v>
+        <v>594.57296589127998</v>
       </c>
       <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/tests/cogeneration/★CGSテストケース一覧.xlsx
+++ b/tests/cogeneration/★CGSテストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/cogeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD94CC-1E80-AA42-8E8C-1EC8BB170732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71858A-0187-D443-A400-A19E9FBD0FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="13580" windowWidth="46960" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="7700" windowWidth="46960" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ケース名</t>
   </si>
@@ -820,6 +820,59 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ホテル 基準ケース + 24時間運転</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウンｔネｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_hotel_05</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_hotel_06</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホテル 基準ケース + 小容量（補機比率0.05のテスト）</t>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ショウヨウリョウ </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">ホキヒリツ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_hotel_07</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ホテル 基準ケース + 給湯→冷房→暖房</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">キュウトウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">レイボウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ダンボウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Case_office_08</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>事務所 基準ケース + CGS運転時間 の(3)のb)</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -828,7 +881,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -867,31 +920,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFE06C75"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -901,24 +942,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -941,13 +982,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,16 +1026,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -975,35 +1068,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI23"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="21"/>
@@ -1399,1403 +1483,1914 @@
     <col min="2" max="2" width="67.1640625" style="1" customWidth="1"/>
     <col min="3" max="12" width="10.33203125" style="1"/>
     <col min="13" max="17" width="16.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="17.5" style="2" customWidth="1"/>
-    <col min="20" max="22" width="17.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5" style="1" customWidth="1"/>
-    <col min="24" max="1023" width="10.33203125" style="1"/>
+    <col min="18" max="18" width="3.6640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="17.5" style="2" customWidth="1"/>
+    <col min="21" max="23" width="17.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" style="1" customWidth="1"/>
+    <col min="25" max="1024" width="10.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="88">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:24" ht="89" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="5" t="s">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="22" thickTop="1">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="9">
         <v>2044</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="9">
         <v>408.8</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="9">
         <v>2220.66</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="9">
         <v>4903.7290508328497</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="9">
         <v>30.011446079999999</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="9">
         <v>45.285128460000102</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="9">
         <v>385.66037735849102</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="9">
         <v>2088.1245448220402</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="9">
         <v>70.895065108096802</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="9">
         <v>3764.0452830188801</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="9">
         <v>1410.21576527037</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="9">
         <v>21.814984800000001</v>
       </c>
-      <c r="P2" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="15">
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
         <v>292.346982256378</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="9"/>
+      <c r="S2" s="11">
         <v>3764.0452830188801</v>
       </c>
-      <c r="S2" s="9">
+      <c r="T2" s="11">
         <v>1410.21576527037</v>
       </c>
-      <c r="T2" s="9">
+      <c r="U2" s="11">
         <v>21.814984800000001</v>
       </c>
-      <c r="U2" s="9">
-        <v>0</v>
-      </c>
-      <c r="V2" s="9">
+      <c r="V2" s="11">
+        <v>0</v>
+      </c>
+      <c r="W2" s="11">
         <v>292.346982256378</v>
       </c>
-      <c r="W2" s="14"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="5" t="s">
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="6">
         <v>2044</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="6">
         <v>408.8</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="6">
         <v>2220.66</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="6">
         <v>4903.7290508328497</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="6">
         <v>30.011446079999999</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="6">
         <v>45.285128460000102</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="6">
         <v>385.66037735849102</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="6">
         <v>2088.1245448220402</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="6">
         <v>70.895065108096802</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="6">
         <v>3764.0452830188801</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="6">
         <v>1410.21576527037</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="6">
         <v>21.814984800000001</v>
       </c>
-      <c r="P3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15">
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>292.346982256378</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="6"/>
+      <c r="S3" s="12">
         <v>3764.0452830188801</v>
       </c>
-      <c r="S3" s="9">
+      <c r="T3" s="12">
         <v>1410.21576527037</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="12">
         <v>21.814984800000001</v>
       </c>
-      <c r="U3" s="9">
-        <v>0</v>
-      </c>
-      <c r="V3" s="9">
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
         <v>292.346982256378</v>
       </c>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="5" t="s">
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="6">
         <v>2044</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="6">
         <v>408.8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="6">
         <v>2220.66</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="6">
         <v>4903.7290508328497</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="6">
         <v>30.011446079999999</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="6">
         <v>45.285128460000102</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="6">
         <v>385.66037735849102</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="6">
         <v>2088.1245448220402</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="6">
         <v>70.895065108096802</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="6">
         <v>3764.0452830188801</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="6">
         <v>1410.21576527037</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="6">
         <v>21.814984800000001</v>
       </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>292.346982256378</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6"/>
+      <c r="S4" s="12">
         <v>3764.0452830188801</v>
       </c>
-      <c r="S4" s="9">
+      <c r="T4" s="12">
         <v>1410.21576527037</v>
       </c>
-      <c r="T4" s="9">
+      <c r="U4" s="12">
         <v>21.814984800000001</v>
       </c>
-      <c r="U4" s="9">
-        <v>0</v>
-      </c>
-      <c r="V4" s="9">
+      <c r="V4" s="12">
+        <v>0</v>
+      </c>
+      <c r="W4" s="12">
         <v>292.346982256378</v>
       </c>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="5" t="s">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="6">
         <v>2030</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="6">
         <v>0.97979417345320197</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="6">
         <v>795.59286884400001</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="6">
         <v>2864.1343278384002</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="6">
         <v>6413.2140223327897</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="6">
         <v>44.659889999999997</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="6">
         <v>44.659889999999997</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="6">
         <v>750.55931023019002</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="6">
         <v>2597.2496560496902</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="6">
         <v>82.630380873376495</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="6">
         <v>7325.4588678466598</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="6">
         <v>1763.0751786359101</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="6">
         <v>10.907492400000001</v>
       </c>
-      <c r="P5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>2686.2275165497599</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="6"/>
+      <c r="S5" s="12">
         <v>7325.4588678467098</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="12">
         <v>1763.0751786359201</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="12">
         <v>10.907492400000001</v>
       </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-      <c r="V5" s="9">
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
         <v>2686.2275165497799</v>
       </c>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="7" t="s">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="6">
         <v>602</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="6">
         <v>0.50194164126450902</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="6">
         <v>241.73509443298801</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="6">
         <v>870.24633995875604</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="6">
         <v>1948.6083372770399</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="6">
         <v>44.659889999999997</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="6">
         <v>44.659889999999997</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="6">
         <v>228.051975880177</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="6">
         <v>844.13894975999301</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="6">
         <v>85.452064998113201</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="6">
         <v>2225.7872845905299</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="6">
         <v>575.542967885743</v>
       </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>852.72191519923001</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="6"/>
+      <c r="S6" s="12">
         <v>2225.7872845905599</v>
       </c>
-      <c r="S6" s="9">
+      <c r="T6" s="12">
         <v>575.542967885753</v>
       </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
         <v>852.72191519924399</v>
       </c>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" ht="19.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="19.25" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="1:23" ht="19.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="12">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="19.25" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="6">
         <v>2016</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="6">
         <v>403.2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="6">
         <v>2190.2399999999998</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="6">
         <v>4836.5546802734998</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="6">
         <v>30.011446079999999</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="6">
         <v>45.285128460000102</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="6">
         <v>380.37735849056702</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="6">
         <v>2068.3391535532301</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="6">
         <v>71.077406777604693</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="6">
         <v>3712.4830188679398</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="6">
         <v>1410.21576527037</v>
       </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>286.14410386478897</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="6"/>
+      <c r="S8" s="12">
         <v>3712.4830188679398</v>
       </c>
-      <c r="S8" s="9">
+      <c r="T8" s="12">
         <v>1410.21576527037</v>
       </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
         <v>286.14410386478801</v>
       </c>
-      <c r="W8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" ht="19.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="19.25" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <v>28</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="6">
         <v>5.6</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="6">
         <v>30.42</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="6">
         <v>67.174370559354301</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="6">
         <v>30.011446079999999</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="6">
         <v>45.285128460000003</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="6">
         <v>5.2830188679245298</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="6">
         <v>19.785391268806102</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="6">
         <v>57.766464903526803</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="6">
         <v>51.562264150943399</v>
       </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
         <v>21.814984800000001</v>
       </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>6.2028783915891097</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="6"/>
+      <c r="S9" s="12">
         <v>51.562264150943399</v>
       </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
         <v>21.814984800000001</v>
       </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
         <v>6.2028783915891097</v>
       </c>
-      <c r="W9" s="14"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="5" t="s">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="19.25" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3808</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>380.8</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2068.56</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4567.8571980360903</v>
+      </c>
+      <c r="H10" s="22">
+        <v>30.011446079999899</v>
+      </c>
+      <c r="I10" s="22">
+        <v>45.285128460000003</v>
+      </c>
+      <c r="J10" s="22">
+        <v>359.24528301886699</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1936.87514396656</v>
+      </c>
+      <c r="L10" s="22">
+        <v>70.714955017054095</v>
+      </c>
+      <c r="M10" s="22">
+        <v>3506.2339622641498</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1278.2662110983399</v>
+      </c>
+      <c r="O10" s="22">
+        <v>61.809123599999999</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>278.45209892640003</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="6">
         <v>5110</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="6">
         <v>0.94174986499906099</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="6">
         <v>1780.56646975372</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="6">
         <v>5316.8178983734397</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="6">
         <v>17858.173772228602</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="6">
         <v>35.894147816400498</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="6">
         <v>29.772461429631999</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="6">
         <v>1679.7796884469101</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="6">
         <v>5157.3133614222297</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L11" s="6">
         <v>62.7416911871208</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M11" s="6">
         <v>16394.6497592417</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N11" s="6">
         <v>512.92452677915605</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O11" s="6">
         <v>331.7751529766</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P11" s="6">
         <v>4887.8911357731204</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q11" s="6">
         <v>4269.0668025421</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R11" s="6"/>
+      <c r="S11" s="12">
         <v>16394.6497592417</v>
       </c>
-      <c r="S10" s="9">
+      <c r="T11" s="12">
         <v>512.92452677915901</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U11" s="12">
         <v>331.77515297660398</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V11" s="12">
         <v>4887.8911357731104</v>
       </c>
-      <c r="V10" s="13">
+      <c r="W11" s="12">
         <v>4269.0668025421</v>
       </c>
-      <c r="W10" s="14"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="5" t="s">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="6">
         <v>5096</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="6">
         <v>0.95214712384973899</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="6">
         <v>1795.2924449611601</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="6">
         <v>5344.3484768913304</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="6">
         <v>17973.709516605199</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="6">
         <v>35.958369060594997</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="6">
         <v>29.734254200302502</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J12" s="6">
         <v>1693.6721178878799</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="6">
         <v>4652.55140923832</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L12" s="6">
         <v>59.808305145376004</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M12" s="6">
         <v>16530.239870585701</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N12" s="6">
         <v>896.75583986724996</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O12" s="6">
         <v>2083.5862884503399</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P12" s="6">
         <v>2237.5434964054898</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q12" s="6">
         <v>3774.4159787037202</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R12" s="6"/>
+      <c r="S12" s="12">
         <v>16530.239870585701</v>
       </c>
-      <c r="S11" s="9">
+      <c r="T12" s="12">
         <v>896.75583986724996</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U12" s="12">
         <v>2083.5862884503399</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V12" s="12">
         <v>2237.5434964054798</v>
       </c>
-      <c r="V11" s="13">
+      <c r="W12" s="12">
         <v>3774.4159787037302</v>
       </c>
-      <c r="W11" s="14"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="7" t="s">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C13" s="6">
         <v>5046</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="6">
         <v>0.94174986499906099</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="6">
         <v>1760.00720709039</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="6">
         <v>5254.3246710309904</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="6">
         <v>17649.5769240632</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="6">
         <v>35.899024507986603</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="6">
         <v>29.770258480628499</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J13" s="6">
         <v>1660.3841576324401</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K13" s="6">
         <v>4203.5863767648798</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L13" s="6">
         <v>57.683928561262299</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M13" s="6">
         <v>16205.349378492599</v>
       </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
         <v>4887.8911357731204</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q13" s="6">
         <v>3443.66359020257</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R13" s="6"/>
+      <c r="S13" s="12">
         <v>16205.349378492599</v>
       </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="9">
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
         <v>4887.8911357731104</v>
       </c>
-      <c r="V12" s="9">
+      <c r="W13" s="12">
         <v>3443.66359020257</v>
       </c>
-      <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="7" t="s">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C14" s="6">
         <v>1050</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="6">
         <v>0.585268299153472</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E14" s="6">
         <v>568.44183555280904</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="6">
         <v>1985.7309628401899</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="6">
         <v>6261.1430226657903</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="6">
         <v>32.683977998618303</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="6">
         <v>31.7151509820443</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J14" s="6">
         <v>536.26588259698997</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K14" s="6">
         <v>1625.3428128850801</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L14" s="6">
         <v>56.793144276718003</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M14" s="6">
         <v>5233.9550141466198</v>
       </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
         <v>1889.93350335474</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q14" s="6">
         <v>862.74549483557098</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R14" s="6"/>
+      <c r="S14" s="12">
         <v>5233.9550141466398</v>
       </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
+      <c r="T14" s="12">
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
         <v>1889.93350335474</v>
       </c>
-      <c r="V13" s="9">
+      <c r="W14" s="12">
         <v>862.74549483556802</v>
       </c>
-      <c r="W13" s="14"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="7" t="s">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0</v>
-      </c>
-      <c r="W14" s="14"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C16" s="6">
         <v>4508</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="6">
         <v>0.95163594451215305</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="6">
         <v>1587.2906900084899</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="6">
         <v>4738.6036630409699</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="6">
         <v>15907.720665798201</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="6">
         <v>35.921214635835497</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="6">
         <v>29.788074373401599</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="6">
         <v>1497.44404717782</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="6">
         <v>4596.4455531497397</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L16" s="6">
         <v>62.782370477893402</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M16" s="6">
         <v>14615.053900455499</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N16" s="6">
         <v>462.35108768997901</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O16" s="6">
         <v>295.03392895922701</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P16" s="6">
         <v>4353.3508854334405</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q16" s="6">
         <v>3818.0691367398899</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R16" s="6"/>
+      <c r="S16" s="12">
         <v>14615.053900000001</v>
       </c>
-      <c r="S15" s="9">
+      <c r="T16" s="12">
         <v>462.35109</v>
       </c>
-      <c r="T15" s="9">
+      <c r="U16" s="12">
         <v>295.03393</v>
       </c>
-      <c r="U15" s="9">
+      <c r="V16" s="12">
         <v>4353.3508899999997</v>
       </c>
-      <c r="V15" s="9">
+      <c r="W16" s="12">
         <v>3818.0691400000001</v>
       </c>
-      <c r="W15" s="14"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="5" t="s">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:1024">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C17" s="6">
         <v>5222</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="6">
         <v>0.83720181916547998</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="6">
         <v>655.78018495232095</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="6">
         <v>3660.4354655745801</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G17" s="6">
         <v>7993.49135981787</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="6">
         <v>29.534136706468502</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="6">
         <v>45.792699345057997</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="6">
         <v>618.660551841813</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="6">
         <v>3550.6224016073402</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L17" s="6">
         <v>72.281311484016101</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M17" s="6">
         <v>6038.1269859760896</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N17" s="6">
         <v>189.499809248731</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O17" s="6">
         <v>50.133775340468802</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P17" s="6">
         <v>3786.4895601093199</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q17" s="6">
         <v>2070.7587708567498</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R17" s="6"/>
+      <c r="S17" s="12">
         <v>6038.1269859761396</v>
       </c>
-      <c r="S16" s="9">
+      <c r="T17" s="12">
         <v>189.499809248741</v>
       </c>
-      <c r="T16" s="9">
+      <c r="U17" s="12">
         <v>50.133775340474301</v>
       </c>
-      <c r="U16" s="9">
+      <c r="V17" s="12">
         <v>3786.4895601093299</v>
       </c>
-      <c r="V16" s="13">
+      <c r="W17" s="12">
         <v>2070.7587708567698</v>
       </c>
-      <c r="W16" s="14"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="5" t="s">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:1024">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="6">
         <v>5222</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="6">
         <v>0.83720181916547998</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="6">
         <v>655.78018495232095</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="6">
         <v>3660.4354655745801</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G18" s="6">
         <v>7993.49135981787</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="6">
         <v>29.534136706468502</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="6">
         <v>45.792699345057997</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J18" s="6">
         <v>618.660551841813</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="6">
         <v>3550.6224016073402</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L18" s="6">
         <v>72.281311484016101</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M18" s="6">
         <v>6038.1269859760896</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N18" s="6">
         <v>189.499809248731</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O18" s="6">
         <v>1769.8816319288201</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P18" s="6">
         <v>2187.3707220685701</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q18" s="6">
         <v>2191.3877894043399</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R18" s="6"/>
+      <c r="S18" s="12">
         <v>6038.1269859761396</v>
       </c>
-      <c r="S17" s="9">
+      <c r="T18" s="12">
         <v>189.499809248741</v>
       </c>
-      <c r="T17" s="9">
+      <c r="U18" s="12">
         <v>1769.8816319288301</v>
       </c>
-      <c r="U17" s="9">
+      <c r="V18" s="12">
         <v>2187.3707220685901</v>
       </c>
-      <c r="V17" s="13">
+      <c r="W18" s="12">
         <v>2191.3877894043599</v>
       </c>
-      <c r="W17" s="14"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="7" t="s">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:1024">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C19" s="6">
         <v>5110</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="6">
         <v>0.85536837518110698</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="6">
         <v>655.63985957631905</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="6">
         <v>3638.0733347376899</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="6">
         <v>7961.7727858686503</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="6">
         <v>29.645451559030299</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="6">
         <v>45.694262227564501</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="6">
         <v>618.528169411622</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="6">
         <v>3256.3810216940201</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="6">
         <v>68.867607491986902</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M19" s="6">
         <v>6036.8349334574305</v>
       </c>
-      <c r="N18" s="16">
-        <v>0</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
         <v>3786.4895601093199</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q19" s="6">
         <v>1861.5517076981</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R19" s="6"/>
+      <c r="S19" s="12">
         <v>6036.83493</v>
       </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
+      <c r="T19" s="12">
+        <v>0</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="12">
         <v>3786.48956</v>
       </c>
-      <c r="V18" s="13">
+      <c r="W19" s="12">
         <v>1861.55171</v>
       </c>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="7" t="s">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:1024">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C20" s="6">
         <v>1300</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="6">
         <v>0.37437050383217702</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="6">
         <v>219.00674474182301</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="6">
         <v>1671.8795552024301</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="6">
         <v>3304.3169951519799</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="6">
         <v>23.860431133796201</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="6">
         <v>50.596827049443803</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J20" s="6">
         <v>206.61013654889001</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K20" s="6">
         <v>1618.8425243604399</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L20" s="6">
         <v>71.501584726975395</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M20" s="6">
         <v>2016.51493271717</v>
       </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
         <v>1882.3750283260899</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q20" s="6">
         <v>594.572965891276</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R20" s="6"/>
+      <c r="S20" s="12">
         <v>2016.51493271718</v>
       </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
+      <c r="T20" s="12">
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
         <v>1882.3750283260999</v>
       </c>
-      <c r="V19" s="9">
+      <c r="W20" s="12">
         <v>594.57296589127998</v>
       </c>
-      <c r="W19" s="14"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="7" t="s">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:1024">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
-        <v>0</v>
-      </c>
-      <c r="M20" s="16">
-        <v>0</v>
-      </c>
-      <c r="N20" s="16">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-      <c r="V20" s="9">
-        <v>0</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="R22" s="18"/>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="12">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <v>0</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0</v>
+      </c>
+      <c r="V21" s="12">
+        <v>0</v>
+      </c>
+      <c r="W21" s="12">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:1024">
+      <c r="A22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="17">
+        <v>8952</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.83701387903529101</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1123.94223676858</v>
+      </c>
+      <c r="F22" s="17">
+        <v>6274.0158674972399</v>
+      </c>
+      <c r="G22" s="17">
+        <v>13700.5941881776</v>
+      </c>
+      <c r="H22" s="17">
+        <v>29.532967671273799</v>
+      </c>
+      <c r="I22" s="17">
+        <v>45.793750120057901</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1060.32286487602</v>
+      </c>
+      <c r="K22" s="17">
+        <v>6058.9825214659804</v>
+      </c>
+      <c r="L22" s="17">
+        <v>72.085521980804998</v>
+      </c>
+      <c r="M22" s="17">
+        <v>10348.751161190001</v>
+      </c>
+      <c r="N22" s="17">
+        <v>928.74117535532696</v>
+      </c>
+      <c r="O22" s="17">
+        <v>955.71180079742396</v>
+      </c>
+      <c r="P22" s="17">
+        <v>4621.6090492003996</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>3154.2189983655599</v>
+      </c>
+      <c r="R22" s="17"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:1024">
+      <c r="A23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="17">
+        <v>24864</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.87086226329084604</v>
+      </c>
+      <c r="E23" s="17">
+        <v>649.59357943390796</v>
+      </c>
+      <c r="F23" s="17">
+        <v>3592.5031281826</v>
+      </c>
+      <c r="G23" s="17">
+        <v>7872.4621715878202</v>
+      </c>
+      <c r="H23" s="17">
+        <v>29.7052794283595</v>
+      </c>
+      <c r="I23" s="17">
+        <v>45.633793467413</v>
+      </c>
+      <c r="J23" s="17">
+        <v>618.66055184181698</v>
+      </c>
+      <c r="K23" s="17">
+        <v>3484.7280343371199</v>
+      </c>
+      <c r="L23" s="17">
+        <v>72.555521976113994</v>
+      </c>
+      <c r="M23" s="17">
+        <v>6038.1269859761396</v>
+      </c>
+      <c r="N23" s="17">
+        <v>169.71055956714801</v>
+      </c>
+      <c r="O23" s="17">
+        <v>47.003733774022301</v>
+      </c>
+      <c r="P23" s="17">
+        <v>3745.47099346612</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>2127.8501011956</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:1024">
+      <c r="A24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="17">
+        <v>5222</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.83720181916548797</v>
+      </c>
+      <c r="E24" s="17">
+        <v>655.78018495232595</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3660.4354655746001</v>
+      </c>
+      <c r="G24" s="17">
+        <v>7993.4913598179201</v>
+      </c>
+      <c r="H24" s="17">
+        <v>29.534136706468502</v>
+      </c>
+      <c r="I24" s="17">
+        <v>45.792699345057898</v>
+      </c>
+      <c r="J24" s="17">
+        <v>618.66055184181698</v>
+      </c>
+      <c r="K24" s="17">
+        <v>3550.6224016073602</v>
+      </c>
+      <c r="L24" s="17">
+        <v>72.281311484016101</v>
+      </c>
+      <c r="M24" s="17">
+        <v>6038.1269859761396</v>
+      </c>
+      <c r="N24" s="17">
+        <v>200.655201736614</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>3786.4895601093299</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>2031.7803880041599</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:1024">
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:1024">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:1024">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="AMB27"/>
+      <c r="AMC27"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
+      <c r="AMF27"/>
+      <c r="AMG27"/>
+      <c r="AMH27"/>
+      <c r="AMI27"/>
+      <c r="AMJ27"/>
+    </row>
+    <row r="28" spans="1:1024">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="AMB28"/>
+      <c r="AMC28"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
+      <c r="AMH28"/>
+      <c r="AMI28"/>
+      <c r="AMJ28"/>
+    </row>
+    <row r="29" spans="1:1024">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="AMB29"/>
+      <c r="AMC29"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
+      <c r="AMH29"/>
+      <c r="AMI29"/>
+      <c r="AMJ29"/>
+    </row>
+    <row r="30" spans="1:1024">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="AMB30"/>
+      <c r="AMC30"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
+      <c r="AMH30"/>
+      <c r="AMI30"/>
+      <c r="AMJ30"/>
+    </row>
+    <row r="31" spans="1:1024">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="AMB31"/>
+      <c r="AMC31"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
+      <c r="AMH31"/>
+      <c r="AMI31"/>
+      <c r="AMJ31"/>
+    </row>
+    <row r="32" spans="1:1024">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="AMB32"/>
+      <c r="AMC32"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
+      <c r="AMH32"/>
+      <c r="AMI32"/>
+      <c r="AMJ32"/>
+    </row>
+    <row r="33" spans="9:1024">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="AMB33"/>
+      <c r="AMC33"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
+      <c r="AMH33"/>
+      <c r="AMI33"/>
+      <c r="AMJ33"/>
+    </row>
+    <row r="34" spans="9:1024">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="AMB34"/>
+      <c r="AMC34"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
+      <c r="AMH34"/>
+      <c r="AMI34"/>
+      <c r="AMJ34"/>
+    </row>
+    <row r="35" spans="9:1024">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="AMB35"/>
+      <c r="AMC35"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
+      <c r="AMH35"/>
+      <c r="AMI35"/>
+      <c r="AMJ35"/>
+    </row>
+    <row r="36" spans="9:1024">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="AMB36"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+    </row>
+    <row r="37" spans="9:1024">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+    </row>
+    <row r="38" spans="9:1024">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="AMB38"/>
+      <c r="AMC38"/>
+      <c r="AMD38"/>
+      <c r="AME38"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+      <c r="AMH38"/>
+      <c r="AMI38"/>
+      <c r="AMJ38"/>
+    </row>
+    <row r="39" spans="9:1024">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="AMB39"/>
+      <c r="AMC39"/>
+      <c r="AMD39"/>
+      <c r="AME39"/>
+      <c r="AMF39"/>
+      <c r="AMG39"/>
+      <c r="AMH39"/>
+      <c r="AMI39"/>
+      <c r="AMJ39"/>
+    </row>
+    <row r="40" spans="9:1024">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="AMB40"/>
+      <c r="AMC40"/>
+      <c r="AMD40"/>
+      <c r="AME40"/>
+      <c r="AMF40"/>
+      <c r="AMG40"/>
+      <c r="AMH40"/>
+      <c r="AMI40"/>
+      <c r="AMJ40"/>
+    </row>
+    <row r="41" spans="9:1024">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="AMB41"/>
+      <c r="AMC41"/>
+      <c r="AMD41"/>
+      <c r="AME41"/>
+      <c r="AMF41"/>
+      <c r="AMG41"/>
+      <c r="AMH41"/>
+      <c r="AMI41"/>
+      <c r="AMJ41"/>
+    </row>
+    <row r="42" spans="9:1024">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="AMB42"/>
+      <c r="AMC42"/>
+      <c r="AMD42"/>
+      <c r="AME42"/>
+      <c r="AMF42"/>
+      <c r="AMG42"/>
+      <c r="AMH42"/>
+      <c r="AMI42"/>
+      <c r="AMJ42"/>
+    </row>
+    <row r="43" spans="9:1024">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="AMB43"/>
+      <c r="AMC43"/>
+      <c r="AMD43"/>
+      <c r="AME43"/>
+      <c r="AMF43"/>
+      <c r="AMG43"/>
+      <c r="AMH43"/>
+      <c r="AMI43"/>
+      <c r="AMJ43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
